--- a/xlsx/副热带湿润气候_intext.xlsx
+++ b/xlsx/副热带湿润气候_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t>副热带湿润气候</t>
   </si>
@@ -29,7 +29,7 @@
     <t>夏雨</t>
   </si>
   <si>
-    <t>政策_政策_美國_副热带湿润气候</t>
+    <t>政策_政策_美国_副热带湿润气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%83%AD%E5%B8%A6%E5%AD%A3%E9%A3%8E%E6%B0%94%E5%80%99</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E6%9D%B1%E5%B2%B8</t>
   </si>
   <si>
-    <t>澳洲東岸</t>
+    <t>澳洲东岸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%86%E5%9C%B0</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E9%A2%A8</t>
   </si>
   <si>
-    <t>信風</t>
+    <t>信风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E9%AB%98%E5%A3%93</t>
   </si>
   <si>
-    <t>蒙古高壓</t>
+    <t>蒙古高压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%96%E6%B5%81</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E9%AB%98%E5%A3%93</t>
   </si>
   <si>
-    <t>副熱帶高壓</t>
+    <t>副热带高压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾福克 (維吉尼亞州)</t>
+    <t>诺福克 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7</t>
   </si>
   <si>
-    <t>亞特蘭大</t>
+    <t>亚特兰大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85_(%E5%B7%B4%E8%A5%BF)</t>
   </si>
   <si>
-    <t>聖保羅 (巴西)</t>
+    <t>圣保罗 (巴西)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9B%B7%E6%A0%BC%E9%87%8C%E6%B8%AF</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC</t>
   </si>
   <si>
-    <t>墨爾本</t>
+    <t>墨尔本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%87%8C%E6%96%AF%E7%8F%AD</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>東倫敦</t>
+    <t>东伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%8B%92%E9%99%80%E5%88%A9%E4%BA%9A</t>
@@ -443,19 +443,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
   </si>
   <si>
-    <t>東亞島弧</t>
+    <t>东亚岛弧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
-    <t>東印度</t>
+    <t>东印度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>印度次大陸</t>
+    <t>印度次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -569,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>巴爾幹半島</t>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
-    <t>歐俄</t>
+    <t>欧俄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>澳大利亞洲</t>
+    <t>澳大利亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E6%8B%89%E8%A5%BF%E4%BA%9A</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻里尼西亞</t>
+    <t>玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E5%9C%B0</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>環太平洋地區</t>
+    <t>环太平洋地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA%E5%9C%B0%E5%8C%BA</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%AE%B6%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國家國協</t>
+    <t>独立国家国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%B8%96%E7%95%8C</t>
@@ -779,27 +779,21 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>氣候</t>
+    <t>气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>熱帶</t>
+    <t>热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%A4%9A%E9%9B%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>赤道多雨氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
   </si>
   <si>
@@ -809,21 +803,15 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶季風氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6</t>
   </si>
   <si>
-    <t>亞熱帶</t>
+    <t>亚热带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%86%B1%E5%B8%B6%E5%AD%A3%E9%A2%A8%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>副熱帶季風氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6</t>
   </si>
   <si>
@@ -833,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E5%A4%A7%E9%99%B8%E6%80%A7%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>溫帶大陸性氣候</t>
+    <t>温带大陆性气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%B8%A6%E8%8D%89%E5%8E%9F%E6%B0%94%E5%80%99</t>
@@ -851,9 +839,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E6%9E%81%E5%9C%B0%E5%A4%A7%E9%99%86%E6%80%A7%E6%B0%94%E5%80%99</t>
   </si>
   <si>
@@ -863,19 +848,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%9C%B0%E5%86%B0%E5%8E%9F%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>極地冰原氣候</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%9C%B0%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>高地氣候</t>
+    <t>高地气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%88%86%E5%B8%83%E5%8D%80</t>
   </si>
   <si>
-    <t>生物地理分布區</t>
+    <t>生物地理分布区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E7%95%8C</t>
@@ -899,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B4%8B%E7%95%8C</t>
   </si>
   <si>
-    <t>東洋界</t>
+    <t>东洋界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%96%B0%E7%95%8C</t>
@@ -2393,7 +2375,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -2422,7 +2404,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="s">
         <v>4</v>
@@ -2451,7 +2433,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -2480,7 +2462,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -2509,7 +2491,7 @@
         <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -2538,7 +2520,7 @@
         <v>88</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -2567,7 +2549,7 @@
         <v>90</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -2596,7 +2578,7 @@
         <v>92</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
@@ -2625,7 +2607,7 @@
         <v>94</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -2654,7 +2636,7 @@
         <v>96</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="s">
         <v>4</v>
@@ -2683,7 +2665,7 @@
         <v>98</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -5290,7 +5272,7 @@
         <v>257</v>
       </c>
       <c r="F139" t="s">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5316,10 +5298,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5345,10 +5327,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5403,10 +5385,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F143" t="s">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -5432,10 +5414,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5461,10 +5443,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F145" t="s">
-        <v>268</v>
+        <v>8</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5490,10 +5472,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F146" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G146" t="n">
         <v>8</v>
@@ -5548,10 +5530,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F148" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5606,10 +5588,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F150" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5693,10 +5675,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F153" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5722,10 +5704,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F154" t="s">
-        <v>278</v>
+        <v>96</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -5751,10 +5733,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F155" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5809,10 +5791,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F157" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5838,10 +5820,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F158" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5867,10 +5849,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F159" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5896,10 +5878,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F160" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -5925,10 +5907,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F161" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -5954,10 +5936,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F162" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -5983,10 +5965,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F163" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6012,10 +5994,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F164" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6041,10 +6023,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F165" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6070,10 +6052,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F166" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>

--- a/xlsx/副热带湿润气候_intext.xlsx
+++ b/xlsx/副热带湿润气候_intext.xlsx
@@ -29,7 +29,7 @@
     <t>夏雨</t>
   </si>
   <si>
-    <t>政策_政策_美國_副热带湿润气候</t>
+    <t>体育运动_体育运动_南非_副热带湿润气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%83%AD%E5%B8%A6%E5%AD%A3%E9%A3%8E%E6%B0%94%E5%80%99</t>
